--- a/example_data/EPA/label_corrected/000432-01587-20190613_2019-12-09_06_03_47.xlsx
+++ b/example_data/EPA/label_corrected/000432-01587-20190613_2019-12-09_06_03_47.xlsx
@@ -728,7 +728,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -994,7 +994,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Env warning - species</t>
+          <t>env warning - species</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
